--- a/18-dars/topshiriq.xlsx
+++ b/18-dars/topshiriq.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>F.I.O</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>Masrurova Saodat Komiljon qizi</t>
-  </si>
-  <si>
-    <t>Po'latov Botir Hakimovich</t>
-  </si>
-  <si>
-    <t>Sattorov Farrux Rovshanovich</t>
   </si>
   <si>
     <t>Qudratov Nodir Lochinbekovich</t>
@@ -110,6 +104,9 @@
   </si>
   <si>
     <t>Reja mavjud emas</t>
+  </si>
+  <si>
+    <t>№</t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,11 +168,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -200,8 +206,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,267 +492,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5200</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4628</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A16" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7300</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8322</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>1290</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6250</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2600</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3146</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6500</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1300</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1365</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5800</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3132</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4900</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3430</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5200</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4680</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8900</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3560</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5400</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5238</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5200</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4628</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7300</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8322</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>1290</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6250</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2600</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3146</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <v>600</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2400</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>6500</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2600</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
-        <v>1625</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5">
-        <v>4100</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2747</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1300</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1365</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5">
-        <v>5800</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3132</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4900</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3430</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5200</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4680</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>8900</v>
-      </c>
-      <c r="C17" s="5">
-        <v>3560</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5400</v>
-      </c>
-      <c r="C18" s="5">
-        <v>5238</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="20" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>